--- a/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 1.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 4 Infinite Number Line 1.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -523,7 +523,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -569,7 +569,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -592,7 +592,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -615,7 +615,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -638,7 +638,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -707,7 +707,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -730,7 +730,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -753,7 +753,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -776,7 +776,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -799,7 +799,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -822,7 +822,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -872,7 +872,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -895,7 +895,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -918,7 +918,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -941,7 +941,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -964,7 +964,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -987,7 +987,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Class</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1064,7 +1064,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1087,7 +1087,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1110,7 +1110,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1133,7 +1133,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1156,7 +1156,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1179,7 +1179,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1202,7 +1202,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1225,7 +1225,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1248,7 +1248,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1271,7 +1271,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1348,7 +1348,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1371,7 +1371,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1394,7 +1394,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1417,7 +1417,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1440,7 +1440,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1463,7 +1463,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1486,7 +1486,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1509,7 +1509,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1532,7 +1532,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1555,7 +1555,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1578,7 +1578,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1632,7 +1632,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1682,7 +1682,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1705,7 +1705,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1755,7 +1755,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1778,7 +1778,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1936,7 +1936,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1986,7 +1986,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2009,7 +2009,7 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2190,7 +2190,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2244,7 +2244,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2267,7 +2267,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2290,7 +2290,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2340,7 +2340,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2386,7 +2386,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2409,7 +2409,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2432,7 +2432,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2509,7 +2509,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2586,7 +2586,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2667,7 +2667,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2690,7 +2690,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2713,7 +2713,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2736,7 +2736,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2786,7 +2786,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2840,7 +2840,7 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2886,7 +2886,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>RT1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
